--- a/Compitition/result/result2.xlsx
+++ b/Compitition/result/result2.xlsx
@@ -407,7 +407,7 @@
         <v>无人机编号</v>
       </c>
       <c r="B1" t="str">
-        <v>无人机运动方向</v>
+        <v>无人机运动方向（°）</v>
       </c>
       <c r="C1" t="str">
         <v>无人机运动速度 (m/s)</v>
@@ -439,7 +439,7 @@
         <v>FY1</v>
       </c>
       <c r="B2" t="str">
-        <v>78.65°</v>
+        <v>178.42</v>
       </c>
       <c r="C2" t="str">
         <v>78.65</v>
@@ -471,7 +471,7 @@
         <v>FY2</v>
       </c>
       <c r="B3" t="str">
-        <v>119.78°</v>
+        <v>-129.29</v>
       </c>
       <c r="C3" t="str">
         <v>119.78</v>
@@ -503,7 +503,7 @@
         <v>FY3</v>
       </c>
       <c r="B4" t="str">
-        <v>135.11°</v>
+        <v>106.94</v>
       </c>
       <c r="C4" t="str">
         <v>135.11</v>
